--- a/src/output/results10.xlsx
+++ b/src/output/results10.xlsx
@@ -336,7 +336,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B365"/>
+  <dimension ref="A1:E365"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
@@ -346,498 +346,1056 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>5238.0</v>
+        <v>0.0</v>
       </c>
       <c r="B1" t="n">
-        <v>1243.0</v>
+        <v>0.0</v>
+      </c>
+      <c r="C1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E1" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5236.0</v>
+        <v>0.0</v>
       </c>
       <c r="B2" t="n">
-        <v>1206.0</v>
+        <v>0.0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4626.0</v>
+        <v>1.0</v>
       </c>
       <c r="B3" t="n">
-        <v>1482.0</v>
+        <v>1.0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4040.0</v>
+        <v>3.0</v>
       </c>
       <c r="B4" t="n">
-        <v>1934.0</v>
+        <v>3.0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3712.0</v>
+        <v>4.0</v>
       </c>
       <c r="B5" t="n">
-        <v>2029.0</v>
+        <v>4.0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>3468.0</v>
+        <v>7.0</v>
       </c>
       <c r="B6" t="n">
-        <v>1919.0</v>
+        <v>7.0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>3288.0</v>
+        <v>11.0</v>
       </c>
       <c r="B7" t="n">
-        <v>1713.0</v>
+        <v>11.0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>3052.0</v>
+        <v>17.0</v>
       </c>
       <c r="B8" t="n">
-        <v>1519.0</v>
+        <v>17.0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2972.0</v>
+        <v>21.0</v>
       </c>
       <c r="B9" t="n">
-        <v>1555.0</v>
+        <v>21.0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2873.0</v>
+        <v>29.0</v>
       </c>
       <c r="B10" t="n">
-        <v>1423.0</v>
+        <v>29.0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2712.0</v>
+        <v>37.0</v>
       </c>
       <c r="B11" t="n">
-        <v>1376.0</v>
+        <v>37.0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>2684.0</v>
+        <v>51.0</v>
       </c>
       <c r="B12" t="n">
-        <v>1210.0</v>
+        <v>51.0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>2667.0</v>
+        <v>63.0</v>
       </c>
       <c r="B13" t="n">
-        <v>1338.0</v>
+        <v>63.0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>2720.0</v>
+        <v>74.0</v>
       </c>
       <c r="B14" t="n">
-        <v>1171.0</v>
+        <v>71.0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>2621.0</v>
+        <v>88.0</v>
       </c>
       <c r="B15" t="n">
-        <v>1192.0</v>
+        <v>83.0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>2591.0</v>
+        <v>106.0</v>
       </c>
       <c r="B16" t="n">
-        <v>1156.0</v>
+        <v>97.0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>9.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>2542.0</v>
+        <v>125.0</v>
       </c>
       <c r="B17" t="n">
-        <v>1162.0</v>
+        <v>111.0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>14.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>2521.0</v>
+        <v>152.0</v>
       </c>
       <c r="B18" t="n">
-        <v>1163.0</v>
+        <v>131.0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>21.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>2626.0</v>
+        <v>177.0</v>
       </c>
       <c r="B19" t="n">
-        <v>1152.0</v>
+        <v>152.0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>25.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>2606.0</v>
+        <v>210.0</v>
       </c>
       <c r="B20" t="n">
-        <v>1143.0</v>
+        <v>179.0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>30.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>2577.0</v>
+        <v>242.0</v>
       </c>
       <c r="B21" t="n">
-        <v>1138.0</v>
+        <v>204.0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>37.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>2572.0</v>
+        <v>269.0</v>
       </c>
       <c r="B22" t="n">
-        <v>1099.0</v>
+        <v>221.0</v>
+      </c>
+      <c r="C22" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>47.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>2545.0</v>
+        <v>310.0</v>
       </c>
       <c r="B23" t="n">
-        <v>1096.0</v>
+        <v>253.0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>41.0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>56.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>2541.0</v>
+        <v>339.0</v>
       </c>
       <c r="B24" t="n">
-        <v>1100.0</v>
+        <v>268.0</v>
+      </c>
+      <c r="C24" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="D24" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>70.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>2422.0</v>
+        <v>371.0</v>
       </c>
       <c r="B25" t="n">
-        <v>1108.0</v>
+        <v>290.0</v>
+      </c>
+      <c r="C25" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>79.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>2422.0</v>
+        <v>413.0</v>
       </c>
       <c r="B26" t="n">
-        <v>1105.0</v>
+        <v>316.0</v>
+      </c>
+      <c r="C26" t="n">
+        <v>42.0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>95.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>2470.0</v>
+        <v>453.0</v>
       </c>
       <c r="B27" t="n">
-        <v>1006.0</v>
+        <v>341.0</v>
+      </c>
+      <c r="C27" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="D27" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="E27" t="n">
+        <v>108.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>2547.0</v>
+        <v>493.0</v>
       </c>
       <c r="B28" t="n">
-        <v>1044.0</v>
+        <v>358.0</v>
+      </c>
+      <c r="C28" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="D28" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>130.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>2576.0</v>
+        <v>535.0</v>
       </c>
       <c r="B29" t="n">
-        <v>1023.0</v>
+        <v>382.0</v>
+      </c>
+      <c r="C29" t="n">
+        <v>42.0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>148.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>2392.0</v>
+        <v>566.0</v>
       </c>
       <c r="B30" t="n">
-        <v>1040.0</v>
+        <v>395.0</v>
+      </c>
+      <c r="C30" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="D30" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="E30" t="n">
+        <v>166.0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>2437.0</v>
+        <v>609.0</v>
       </c>
       <c r="B31" t="n">
-        <v>1063.0</v>
+        <v>411.0</v>
+      </c>
+      <c r="C31" t="n">
+        <v>43.0</v>
+      </c>
+      <c r="D31" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>192.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>3224.0</v>
+        <v>656.0</v>
       </c>
       <c r="B32" t="n">
-        <v>1038.0</v>
+        <v>437.0</v>
+      </c>
+      <c r="C32" t="n">
+        <v>47.0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>213.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>3138.0</v>
+        <v>704.0</v>
       </c>
       <c r="B33" t="n">
-        <v>1040.0</v>
+        <v>451.0</v>
+      </c>
+      <c r="C33" t="n">
+        <v>48.0</v>
+      </c>
+      <c r="D33" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="E33" t="n">
+        <v>246.0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>2997.0</v>
+        <v>753.0</v>
       </c>
       <c r="B34" t="n">
-        <v>1181.0</v>
+        <v>469.0</v>
+      </c>
+      <c r="C34" t="n">
+        <v>49.0</v>
+      </c>
+      <c r="D34" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="E34" t="n">
+        <v>275.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>3068.0</v>
+        <v>806.0</v>
       </c>
       <c r="B35" t="n">
-        <v>1298.0</v>
+        <v>490.0</v>
+      </c>
+      <c r="C35" t="n">
+        <v>53.0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>307.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>3994.0</v>
+        <v>873.0</v>
       </c>
       <c r="B36" t="n">
-        <v>1302.0</v>
+        <v>525.0</v>
+      </c>
+      <c r="C36" t="n">
+        <v>67.0</v>
+      </c>
+      <c r="D36" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="E36" t="n">
+        <v>339.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>4067.0</v>
+        <v>942.0</v>
       </c>
       <c r="B37" t="n">
-        <v>1357.0</v>
+        <v>562.0</v>
+      </c>
+      <c r="C37" t="n">
+        <v>69.0</v>
+      </c>
+      <c r="D37" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="E37" t="n">
+        <v>370.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>4462.0</v>
+        <v>1014.0</v>
       </c>
       <c r="B38" t="n">
-        <v>1517.0</v>
+        <v>592.0</v>
+      </c>
+      <c r="C38" t="n">
+        <v>72.0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>409.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>5093.0</v>
+        <v>1100.0</v>
       </c>
       <c r="B39" t="n">
-        <v>1646.0</v>
+        <v>633.0</v>
+      </c>
+      <c r="C39" t="n">
+        <v>86.0</v>
+      </c>
+      <c r="D39" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="E39" t="n">
+        <v>451.0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>5620.0</v>
+        <v>1195.0</v>
       </c>
       <c r="B40" t="n">
-        <v>1816.0</v>
+        <v>695.0</v>
+      </c>
+      <c r="C40" t="n">
+        <v>95.0</v>
+      </c>
+      <c r="D40" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="E40" t="n">
+        <v>483.0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>5058.0</v>
+        <v>1301.0</v>
       </c>
       <c r="B41" t="n">
-        <v>1964.0</v>
+        <v>765.0</v>
+      </c>
+      <c r="C41" t="n">
+        <v>106.0</v>
+      </c>
+      <c r="D41" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>518.0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>4870.0</v>
+        <v>1409.0</v>
       </c>
       <c r="B42" t="n">
-        <v>2197.0</v>
+        <v>811.0</v>
+      </c>
+      <c r="C42" t="n">
+        <v>108.0</v>
+      </c>
+      <c r="D42" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="E42" t="n">
+        <v>580.0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>6742.0</v>
+        <v>1516.0</v>
       </c>
       <c r="B43" t="n">
-        <v>2415.0</v>
+        <v>876.0</v>
+      </c>
+      <c r="C43" t="n">
+        <v>107.0</v>
+      </c>
+      <c r="D43" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="E43" t="n">
+        <v>621.0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>6509.0</v>
+        <v>1655.0</v>
       </c>
       <c r="B44" t="n">
-        <v>2338.0</v>
+        <v>973.0</v>
+      </c>
+      <c r="C44" t="n">
+        <v>139.0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>663.0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>6899.0</v>
+        <v>1786.0</v>
       </c>
       <c r="B45" t="n">
-        <v>2420.0</v>
+        <v>1049.0</v>
+      </c>
+      <c r="C45" t="n">
+        <v>131.0</v>
+      </c>
+      <c r="D45" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="E45" t="n">
+        <v>717.0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>7690.0</v>
+        <v>1921.0</v>
       </c>
       <c r="B46" t="n">
-        <v>2852.0</v>
+        <v>1128.0</v>
+      </c>
+      <c r="C46" t="n">
+        <v>135.0</v>
+      </c>
+      <c r="D46" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="E46" t="n">
+        <v>772.0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>8245.0</v>
+        <v>2070.0</v>
       </c>
       <c r="B47" t="n">
-        <v>2812.0</v>
+        <v>1219.0</v>
+      </c>
+      <c r="C47" t="n">
+        <v>149.0</v>
+      </c>
+      <c r="D47" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="E47" t="n">
+        <v>829.0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>7369.0</v>
+        <v>2236.0</v>
       </c>
       <c r="B48" t="n">
-        <v>3161.0</v>
+        <v>1325.0</v>
+      </c>
+      <c r="C48" t="n">
+        <v>166.0</v>
+      </c>
+      <c r="D48" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="E48" t="n">
+        <v>888.0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>6820.0</v>
+        <v>2393.0</v>
       </c>
       <c r="B49" t="n">
-        <v>3365.0</v>
+        <v>1406.0</v>
+      </c>
+      <c r="C49" t="n">
+        <v>157.0</v>
+      </c>
+      <c r="D49" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="E49" t="n">
+        <v>963.0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>9887.0</v>
+        <v>2583.0</v>
       </c>
       <c r="B50" t="n">
-        <v>3576.0</v>
+        <v>1503.0</v>
+      </c>
+      <c r="C50" t="n">
+        <v>190.0</v>
+      </c>
+      <c r="D50" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="E50" t="n">
+        <v>1051.0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>8842.0</v>
+        <v>2767.0</v>
       </c>
       <c r="B51" t="n">
-        <v>3308.0</v>
+        <v>1596.0</v>
+      </c>
+      <c r="C51" t="n">
+        <v>184.0</v>
+      </c>
+      <c r="D51" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="E51" t="n">
+        <v>1142.0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>9548.0</v>
+        <v>2971.0</v>
       </c>
       <c r="B52" t="n">
-        <v>3690.0</v>
+        <v>1718.0</v>
+      </c>
+      <c r="C52" t="n">
+        <v>204.0</v>
+      </c>
+      <c r="D52" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="E52" t="n">
+        <v>1221.0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>10531.0</v>
+        <v>3167.0</v>
       </c>
       <c r="B53" t="n">
-        <v>3942.0</v>
+        <v>1823.0</v>
+      </c>
+      <c r="C53" t="n">
+        <v>196.0</v>
+      </c>
+      <c r="D53" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="E53" t="n">
+        <v>1312.0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>11342.0</v>
+        <v>3412.0</v>
       </c>
       <c r="B54" t="n">
-        <v>4011.0</v>
+        <v>1952.0</v>
+      </c>
+      <c r="C54" t="n">
+        <v>245.0</v>
+      </c>
+      <c r="D54" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="E54" t="n">
+        <v>1425.0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>9801.0</v>
+        <v>3679.0</v>
       </c>
       <c r="B55" t="n">
-        <v>4253.0</v>
+        <v>2119.0</v>
+      </c>
+      <c r="C55" t="n">
+        <v>267.0</v>
+      </c>
+      <c r="D55" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="E55" t="n">
+        <v>1525.0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>9064.0</v>
+        <v>3963.0</v>
       </c>
       <c r="B56" t="n">
-        <v>4772.0</v>
+        <v>2270.0</v>
+      </c>
+      <c r="C56" t="n">
+        <v>284.0</v>
+      </c>
+      <c r="D56" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="E56" t="n">
+        <v>1653.0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>12706.0</v>
+        <v>4266.0</v>
       </c>
       <c r="B57" t="n">
-        <v>4926.0</v>
+        <v>2451.0</v>
+      </c>
+      <c r="C57" t="n">
+        <v>303.0</v>
+      </c>
+      <c r="D57" t="n">
+        <v>41.0</v>
+      </c>
+      <c r="E57" t="n">
+        <v>1774.0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>11501.0</v>
+        <v>4572.0</v>
       </c>
       <c r="B58" t="n">
-        <v>4599.0</v>
+        <v>2636.0</v>
+      </c>
+      <c r="C58" t="n">
+        <v>306.0</v>
+      </c>
+      <c r="D58" t="n">
+        <v>43.0</v>
+      </c>
+      <c r="E58" t="n">
+        <v>1893.0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>11741.0</v>
+        <v>4898.0</v>
       </c>
       <c r="B59" t="n">
-        <v>4840.0</v>
+        <v>2816.0</v>
+      </c>
+      <c r="C59" t="n">
+        <v>326.0</v>
+      </c>
+      <c r="D59" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="E59" t="n">
+        <v>2037.0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>13213.0</v>
+        <v>5235.0</v>
       </c>
       <c r="B60" t="n">
-        <v>5205.0</v>
+        <v>2982.0</v>
+      </c>
+      <c r="C60" t="n">
+        <v>337.0</v>
+      </c>
+      <c r="D60" t="n">
+        <v>48.0</v>
+      </c>
+      <c r="E60" t="n">
+        <v>2205.0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>13684.0</v>
+        <v>5642.0</v>
       </c>
       <c r="B61" t="n">
-        <v>5242.0</v>
+        <v>3208.0</v>
+      </c>
+      <c r="C61" t="n">
+        <v>407.0</v>
+      </c>
+      <c r="D61" t="n">
+        <v>52.0</v>
+      </c>
+      <c r="E61" t="n">
+        <v>2382.0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>11850.0</v>
+        <v>6033.0</v>
       </c>
       <c r="B62" t="n">
-        <v>5336.0</v>
+        <v>3411.0</v>
+      </c>
+      <c r="C62" t="n">
+        <v>391.0</v>
+      </c>
+      <c r="D62" t="n">
+        <v>57.0</v>
+      </c>
+      <c r="E62" t="n">
+        <v>2565.0</v>
       </c>
     </row>
     <row r="63">

--- a/src/output/results10.xlsx
+++ b/src/output/results10.xlsx
@@ -346,13 +346,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>0.0</v>
+        <v>81.0</v>
       </c>
       <c r="B1" t="n">
-        <v>0.0</v>
+        <v>81.0</v>
       </c>
       <c r="C1" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D1" t="n">
         <v>0.0</v>
@@ -363,13 +363,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.0</v>
+        <v>85.0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0</v>
+        <v>85.0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="D2" t="n">
         <v>0.0</v>
@@ -380,13 +380,13 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.0</v>
+        <v>88.0</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0</v>
+        <v>88.0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="D3" t="n">
         <v>0.0</v>
@@ -397,13 +397,13 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.0</v>
+        <v>94.0</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0</v>
+        <v>94.0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
       <c r="D4" t="n">
         <v>0.0</v>
@@ -414,13 +414,13 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.0</v>
+        <v>102.0</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0</v>
+        <v>102.0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="D5" t="n">
         <v>0.0</v>
@@ -431,13 +431,13 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1.0</v>
+        <v>111.0</v>
       </c>
       <c r="B6" t="n">
-        <v>1.0</v>
+        <v>111.0</v>
       </c>
       <c r="C6" t="n">
-        <v>1.0</v>
+        <v>9.0</v>
       </c>
       <c r="D6" t="n">
         <v>0.0</v>
@@ -448,13 +448,13 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>4.0</v>
+        <v>126.0</v>
       </c>
       <c r="B7" t="n">
-        <v>4.0</v>
+        <v>126.0</v>
       </c>
       <c r="C7" t="n">
-        <v>3.0</v>
+        <v>15.0</v>
       </c>
       <c r="D7" t="n">
         <v>0.0</v>
@@ -465,10 +465,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>12.0</v>
+        <v>134.0</v>
       </c>
       <c r="B8" t="n">
-        <v>12.0</v>
+        <v>134.0</v>
       </c>
       <c r="C8" t="n">
         <v>8.0</v>
@@ -482,13 +482,13 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>23.0</v>
+        <v>142.0</v>
       </c>
       <c r="B9" t="n">
-        <v>23.0</v>
+        <v>142.0</v>
       </c>
       <c r="C9" t="n">
-        <v>11.0</v>
+        <v>8.0</v>
       </c>
       <c r="D9" t="n">
         <v>0.0</v>
@@ -499,13 +499,13 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>29.0</v>
+        <v>156.0</v>
       </c>
       <c r="B10" t="n">
-        <v>29.0</v>
+        <v>156.0</v>
       </c>
       <c r="C10" t="n">
-        <v>6.0</v>
+        <v>14.0</v>
       </c>
       <c r="D10" t="n">
         <v>0.0</v>
@@ -516,13 +516,13 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>37.0</v>
+        <v>176.0</v>
       </c>
       <c r="B11" t="n">
-        <v>36.0</v>
+        <v>175.0</v>
       </c>
       <c r="C11" t="n">
-        <v>8.0</v>
+        <v>20.0</v>
       </c>
       <c r="D11" t="n">
         <v>0.0</v>
@@ -533,869 +533,869 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>47.0</v>
+        <v>197.0</v>
       </c>
       <c r="B12" t="n">
-        <v>46.0</v>
+        <v>195.0</v>
       </c>
       <c r="C12" t="n">
-        <v>10.0</v>
+        <v>21.0</v>
       </c>
       <c r="D12" t="n">
         <v>0.0</v>
       </c>
       <c r="E12" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>59.0</v>
+        <v>215.0</v>
       </c>
       <c r="B13" t="n">
-        <v>58.0</v>
+        <v>213.0</v>
       </c>
       <c r="C13" t="n">
-        <v>12.0</v>
+        <v>18.0</v>
       </c>
       <c r="D13" t="n">
         <v>0.0</v>
       </c>
       <c r="E13" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>67.0</v>
+        <v>237.0</v>
       </c>
       <c r="B14" t="n">
-        <v>66.0</v>
+        <v>234.0</v>
       </c>
       <c r="C14" t="n">
-        <v>8.0</v>
+        <v>22.0</v>
       </c>
       <c r="D14" t="n">
         <v>0.0</v>
       </c>
       <c r="E14" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>76.0</v>
+        <v>264.0</v>
       </c>
       <c r="B15" t="n">
-        <v>70.0</v>
+        <v>256.0</v>
       </c>
       <c r="C15" t="n">
-        <v>9.0</v>
+        <v>27.0</v>
       </c>
       <c r="D15" t="n">
         <v>0.0</v>
       </c>
       <c r="E15" t="n">
-        <v>6.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>91.0</v>
+        <v>294.0</v>
       </c>
       <c r="B16" t="n">
-        <v>85.0</v>
+        <v>283.0</v>
       </c>
       <c r="C16" t="n">
-        <v>15.0</v>
+        <v>30.0</v>
       </c>
       <c r="D16" t="n">
         <v>0.0</v>
       </c>
       <c r="E16" t="n">
-        <v>6.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>109.0</v>
+        <v>331.0</v>
       </c>
       <c r="B17" t="n">
-        <v>101.0</v>
+        <v>312.0</v>
       </c>
       <c r="C17" t="n">
+        <v>37.0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E17" t="n">
         <v>18.0</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E17" t="n">
-        <v>8.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>135.0</v>
+        <v>371.0</v>
       </c>
       <c r="B18" t="n">
-        <v>125.0</v>
+        <v>347.0</v>
       </c>
       <c r="C18" t="n">
-        <v>26.0</v>
+        <v>40.0</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E18" t="n">
-        <v>10.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>144.0</v>
+        <v>427.0</v>
       </c>
       <c r="B19" t="n">
-        <v>131.0</v>
+        <v>400.0</v>
       </c>
       <c r="C19" t="n">
-        <v>9.0</v>
+        <v>56.0</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E19" t="n">
-        <v>13.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>171.0</v>
+        <v>471.0</v>
       </c>
       <c r="B20" t="n">
-        <v>146.0</v>
+        <v>427.0</v>
       </c>
       <c r="C20" t="n">
-        <v>27.0</v>
+        <v>44.0</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E20" t="n">
-        <v>25.0</v>
+        <v>43.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>196.0</v>
+        <v>532.0</v>
       </c>
       <c r="B21" t="n">
-        <v>161.0</v>
+        <v>469.0</v>
       </c>
       <c r="C21" t="n">
-        <v>25.0</v>
+        <v>61.0</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E21" t="n">
-        <v>35.0</v>
+        <v>62.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>232.0</v>
+        <v>605.0</v>
       </c>
       <c r="B22" t="n">
-        <v>191.0</v>
+        <v>522.0</v>
       </c>
       <c r="C22" t="n">
-        <v>36.0</v>
+        <v>73.0</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E22" t="n">
-        <v>41.0</v>
+        <v>82.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>284.0</v>
+        <v>672.0</v>
       </c>
       <c r="B23" t="n">
-        <v>236.0</v>
+        <v>575.0</v>
       </c>
       <c r="C23" t="n">
-        <v>52.0</v>
+        <v>67.0</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="E23" t="n">
-        <v>48.0</v>
+        <v>95.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>327.0</v>
+        <v>756.0</v>
       </c>
       <c r="B24" t="n">
-        <v>267.0</v>
+        <v>632.0</v>
       </c>
       <c r="C24" t="n">
-        <v>43.0</v>
+        <v>84.0</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="E24" t="n">
-        <v>60.0</v>
+        <v>122.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>379.0</v>
+        <v>847.0</v>
       </c>
       <c r="B25" t="n">
-        <v>303.0</v>
+        <v>703.0</v>
       </c>
       <c r="C25" t="n">
-        <v>52.0</v>
+        <v>91.0</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="E25" t="n">
-        <v>76.0</v>
+        <v>141.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>439.0</v>
+        <v>925.0</v>
       </c>
       <c r="B26" t="n">
-        <v>352.0</v>
+        <v>755.0</v>
       </c>
       <c r="C26" t="n">
-        <v>60.0</v>
+        <v>78.0</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="E26" t="n">
-        <v>87.0</v>
+        <v>166.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>492.0</v>
+        <v>1030.0</v>
       </c>
       <c r="B27" t="n">
-        <v>393.0</v>
+        <v>822.0</v>
       </c>
       <c r="C27" t="n">
-        <v>53.0</v>
+        <v>105.0</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c r="E27" t="n">
-        <v>99.0</v>
+        <v>203.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>552.0</v>
+        <v>1139.0</v>
       </c>
       <c r="B28" t="n">
-        <v>431.0</v>
+        <v>899.0</v>
       </c>
       <c r="C28" t="n">
-        <v>60.0</v>
+        <v>109.0</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
       <c r="E28" t="n">
-        <v>121.0</v>
+        <v>233.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>613.0</v>
+        <v>1250.0</v>
       </c>
       <c r="B29" t="n">
-        <v>469.0</v>
+        <v>975.0</v>
       </c>
       <c r="C29" t="n">
-        <v>61.0</v>
+        <v>111.0</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
       <c r="E29" t="n">
-        <v>144.0</v>
+        <v>268.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>678.0</v>
+        <v>1399.0</v>
       </c>
       <c r="B30" t="n">
-        <v>508.0</v>
+        <v>1084.0</v>
       </c>
       <c r="C30" t="n">
-        <v>65.0</v>
+        <v>149.0</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
       <c r="E30" t="n">
-        <v>170.0</v>
+        <v>308.0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>762.0</v>
+        <v>1533.0</v>
       </c>
       <c r="B31" t="n">
-        <v>567.0</v>
+        <v>1175.0</v>
       </c>
       <c r="C31" t="n">
-        <v>84.0</v>
+        <v>134.0</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
       <c r="E31" t="n">
-        <v>195.0</v>
+        <v>351.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>835.0</v>
+        <v>1682.0</v>
       </c>
       <c r="B32" t="n">
-        <v>609.0</v>
+        <v>1283.0</v>
       </c>
       <c r="C32" t="n">
-        <v>73.0</v>
+        <v>149.0</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
       <c r="E32" t="n">
-        <v>226.0</v>
+        <v>392.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>923.0</v>
+        <v>1840.0</v>
       </c>
       <c r="B33" t="n">
-        <v>665.0</v>
+        <v>1388.0</v>
       </c>
       <c r="C33" t="n">
-        <v>88.0</v>
+        <v>158.0</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0</v>
+        <v>9.0</v>
       </c>
       <c r="E33" t="n">
-        <v>258.0</v>
+        <v>443.0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>1023.0</v>
+        <v>2027.0</v>
       </c>
       <c r="B34" t="n">
-        <v>721.0</v>
+        <v>1521.0</v>
       </c>
       <c r="C34" t="n">
-        <v>100.0</v>
+        <v>187.0</v>
       </c>
       <c r="D34" t="n">
-        <v>1.0</v>
+        <v>11.0</v>
       </c>
       <c r="E34" t="n">
-        <v>301.0</v>
+        <v>495.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>1134.0</v>
+        <v>2222.0</v>
       </c>
       <c r="B35" t="n">
-        <v>797.0</v>
+        <v>1654.0</v>
       </c>
       <c r="C35" t="n">
-        <v>111.0</v>
+        <v>195.0</v>
       </c>
       <c r="D35" t="n">
-        <v>2.0</v>
+        <v>12.0</v>
       </c>
       <c r="E35" t="n">
-        <v>335.0</v>
+        <v>556.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1258.0</v>
+        <v>2448.0</v>
       </c>
       <c r="B36" t="n">
-        <v>890.0</v>
+        <v>1827.0</v>
       </c>
       <c r="C36" t="n">
-        <v>124.0</v>
+        <v>226.0</v>
       </c>
       <c r="D36" t="n">
-        <v>3.0</v>
+        <v>12.0</v>
       </c>
       <c r="E36" t="n">
-        <v>365.0</v>
+        <v>609.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>1393.0</v>
+        <v>2703.0</v>
       </c>
       <c r="B37" t="n">
-        <v>974.0</v>
+        <v>1995.0</v>
       </c>
       <c r="C37" t="n">
-        <v>135.0</v>
+        <v>255.0</v>
       </c>
       <c r="D37" t="n">
-        <v>5.0</v>
+        <v>14.0</v>
       </c>
       <c r="E37" t="n">
-        <v>414.0</v>
+        <v>694.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1537.0</v>
+        <v>2960.0</v>
       </c>
       <c r="B38" t="n">
-        <v>1064.0</v>
+        <v>2166.0</v>
       </c>
       <c r="C38" t="n">
-        <v>144.0</v>
+        <v>257.0</v>
       </c>
       <c r="D38" t="n">
-        <v>6.0</v>
+        <v>16.0</v>
       </c>
       <c r="E38" t="n">
-        <v>467.0</v>
+        <v>778.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>1715.0</v>
+        <v>3252.0</v>
       </c>
       <c r="B39" t="n">
-        <v>1191.0</v>
+        <v>2347.0</v>
       </c>
       <c r="C39" t="n">
-        <v>178.0</v>
+        <v>292.0</v>
       </c>
       <c r="D39" t="n">
-        <v>9.0</v>
+        <v>18.0</v>
       </c>
       <c r="E39" t="n">
-        <v>515.0</v>
+        <v>887.0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>1920.0</v>
+        <v>3532.0</v>
       </c>
       <c r="B40" t="n">
-        <v>1339.0</v>
+        <v>2527.0</v>
       </c>
       <c r="C40" t="n">
-        <v>205.0</v>
+        <v>280.0</v>
       </c>
       <c r="D40" t="n">
-        <v>11.0</v>
+        <v>18.0</v>
       </c>
       <c r="E40" t="n">
-        <v>570.0</v>
+        <v>987.0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>2143.0</v>
+        <v>3859.0</v>
       </c>
       <c r="B41" t="n">
-        <v>1509.0</v>
+        <v>2755.0</v>
       </c>
       <c r="C41" t="n">
-        <v>223.0</v>
+        <v>327.0</v>
       </c>
       <c r="D41" t="n">
-        <v>11.0</v>
+        <v>21.0</v>
       </c>
       <c r="E41" t="n">
-        <v>623.0</v>
+        <v>1083.0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>2373.0</v>
+        <v>4183.0</v>
       </c>
       <c r="B42" t="n">
-        <v>1663.0</v>
+        <v>2957.0</v>
       </c>
       <c r="C42" t="n">
-        <v>230.0</v>
+        <v>324.0</v>
       </c>
       <c r="D42" t="n">
-        <v>11.0</v>
+        <v>21.0</v>
       </c>
       <c r="E42" t="n">
-        <v>699.0</v>
+        <v>1205.0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>2638.0</v>
+        <v>4558.0</v>
       </c>
       <c r="B43" t="n">
-        <v>1831.0</v>
+        <v>3193.0</v>
       </c>
       <c r="C43" t="n">
-        <v>265.0</v>
+        <v>375.0</v>
       </c>
       <c r="D43" t="n">
-        <v>12.0</v>
+        <v>21.0</v>
       </c>
       <c r="E43" t="n">
-        <v>795.0</v>
+        <v>1344.0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>2939.0</v>
+        <v>4970.0</v>
       </c>
       <c r="B44" t="n">
-        <v>2037.0</v>
+        <v>3450.0</v>
       </c>
       <c r="C44" t="n">
-        <v>301.0</v>
+        <v>412.0</v>
       </c>
       <c r="D44" t="n">
-        <v>13.0</v>
+        <v>25.0</v>
       </c>
       <c r="E44" t="n">
-        <v>889.0</v>
+        <v>1495.0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>3239.0</v>
+        <v>5431.0</v>
       </c>
       <c r="B45" t="n">
-        <v>2241.0</v>
+        <v>3754.0</v>
       </c>
       <c r="C45" t="n">
-        <v>300.0</v>
+        <v>461.0</v>
       </c>
       <c r="D45" t="n">
-        <v>13.0</v>
+        <v>26.0</v>
       </c>
       <c r="E45" t="n">
-        <v>985.0</v>
+        <v>1651.0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>3608.0</v>
+        <v>5896.0</v>
       </c>
       <c r="B46" t="n">
-        <v>2514.0</v>
+        <v>4045.0</v>
       </c>
       <c r="C46" t="n">
-        <v>369.0</v>
+        <v>465.0</v>
       </c>
       <c r="D46" t="n">
-        <v>15.0</v>
+        <v>27.0</v>
       </c>
       <c r="E46" t="n">
-        <v>1079.0</v>
+        <v>1824.0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>4006.0</v>
+        <v>6379.0</v>
       </c>
       <c r="B47" t="n">
-        <v>2781.0</v>
+        <v>4349.0</v>
       </c>
       <c r="C47" t="n">
-        <v>398.0</v>
+        <v>483.0</v>
       </c>
       <c r="D47" t="n">
-        <v>17.0</v>
+        <v>29.0</v>
       </c>
       <c r="E47" t="n">
-        <v>1208.0</v>
+        <v>2001.0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>4469.0</v>
+        <v>6917.0</v>
       </c>
       <c r="B48" t="n">
-        <v>3124.0</v>
+        <v>4685.0</v>
       </c>
       <c r="C48" t="n">
-        <v>463.0</v>
+        <v>538.0</v>
       </c>
       <c r="D48" t="n">
-        <v>18.0</v>
+        <v>31.0</v>
       </c>
       <c r="E48" t="n">
-        <v>1327.0</v>
+        <v>2201.0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>4984.0</v>
+        <v>7466.0</v>
       </c>
       <c r="B49" t="n">
-        <v>3486.0</v>
+        <v>5016.0</v>
       </c>
       <c r="C49" t="n">
-        <v>515.0</v>
+        <v>549.0</v>
       </c>
       <c r="D49" t="n">
-        <v>19.0</v>
+        <v>35.0</v>
       </c>
       <c r="E49" t="n">
-        <v>1479.0</v>
+        <v>2415.0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>5515.0</v>
+        <v>8070.0</v>
       </c>
       <c r="B50" t="n">
-        <v>3870.0</v>
+        <v>5363.0</v>
       </c>
       <c r="C50" t="n">
-        <v>531.0</v>
+        <v>604.0</v>
       </c>
       <c r="D50" t="n">
-        <v>20.0</v>
+        <v>37.0</v>
       </c>
       <c r="E50" t="n">
-        <v>1625.0</v>
+        <v>2670.0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>6139.0</v>
+        <v>8704.0</v>
       </c>
       <c r="B51" t="n">
-        <v>4276.0</v>
+        <v>5747.0</v>
       </c>
       <c r="C51" t="n">
-        <v>624.0</v>
+        <v>634.0</v>
       </c>
       <c r="D51" t="n">
-        <v>25.0</v>
+        <v>40.0</v>
       </c>
       <c r="E51" t="n">
-        <v>1838.0</v>
+        <v>2917.0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>6813.0</v>
+        <v>9425.0</v>
       </c>
       <c r="B52" t="n">
-        <v>4745.0</v>
+        <v>6171.0</v>
       </c>
       <c r="C52" t="n">
-        <v>674.0</v>
+        <v>721.0</v>
       </c>
       <c r="D52" t="n">
-        <v>29.0</v>
+        <v>45.0</v>
       </c>
       <c r="E52" t="n">
-        <v>2039.0</v>
+        <v>3209.0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>7552.0</v>
+        <v>10183.0</v>
       </c>
       <c r="B53" t="n">
-        <v>5254.0</v>
+        <v>6613.0</v>
       </c>
       <c r="C53" t="n">
-        <v>739.0</v>
+        <v>758.0</v>
       </c>
       <c r="D53" t="n">
-        <v>33.0</v>
+        <v>50.0</v>
       </c>
       <c r="E53" t="n">
-        <v>2265.0</v>
+        <v>3520.0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>8351.0</v>
+        <v>10957.0</v>
       </c>
       <c r="B54" t="n">
-        <v>5772.0</v>
+        <v>7056.0</v>
       </c>
       <c r="C54" t="n">
-        <v>799.0</v>
+        <v>774.0</v>
       </c>
       <c r="D54" t="n">
-        <v>37.0</v>
+        <v>55.0</v>
       </c>
       <c r="E54" t="n">
-        <v>2542.0</v>
+        <v>3846.0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>9250.0</v>
+        <v>11756.0</v>
       </c>
       <c r="B55" t="n">
-        <v>6394.0</v>
+        <v>7496.0</v>
       </c>
       <c r="C55" t="n">
-        <v>899.0</v>
+        <v>799.0</v>
       </c>
       <c r="D55" t="n">
-        <v>39.0</v>
+        <v>64.0</v>
       </c>
       <c r="E55" t="n">
-        <v>2817.0</v>
+        <v>4196.0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>10183.0</v>
+        <v>12619.0</v>
       </c>
       <c r="B56" t="n">
-        <v>7007.0</v>
+        <v>7963.0</v>
       </c>
       <c r="C56" t="n">
-        <v>933.0</v>
+        <v>863.0</v>
       </c>
       <c r="D56" t="n">
-        <v>45.0</v>
+        <v>68.0</v>
       </c>
       <c r="E56" t="n">
-        <v>3131.0</v>
+        <v>4588.0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>11117.0</v>
+        <v>13509.0</v>
       </c>
       <c r="B57" t="n">
-        <v>7562.0</v>
+        <v>8437.0</v>
       </c>
       <c r="C57" t="n">
-        <v>934.0</v>
+        <v>890.0</v>
       </c>
       <c r="D57" t="n">
-        <v>50.0</v>
+        <v>73.0</v>
       </c>
       <c r="E57" t="n">
-        <v>3505.0</v>
+        <v>4999.0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>12138.0</v>
+        <v>14405.0</v>
       </c>
       <c r="B58" t="n">
-        <v>8173.0</v>
+        <v>8900.0</v>
       </c>
       <c r="C58" t="n">
-        <v>1021.0</v>
+        <v>896.0</v>
       </c>
       <c r="D58" t="n">
-        <v>53.0</v>
+        <v>83.0</v>
       </c>
       <c r="E58" t="n">
-        <v>3912.0</v>
+        <v>5422.0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>13388.0</v>
+        <v>15384.0</v>
       </c>
       <c r="B59" t="n">
-        <v>9006.0</v>
+        <v>9340.0</v>
       </c>
       <c r="C59" t="n">
-        <v>1250.0</v>
+        <v>979.0</v>
       </c>
       <c r="D59" t="n">
-        <v>62.0</v>
+        <v>97.0</v>
       </c>
       <c r="E59" t="n">
-        <v>4320.0</v>
+        <v>5947.0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>14658.0</v>
+        <v>16536.0</v>
       </c>
       <c r="B60" t="n">
-        <v>9769.0</v>
+        <v>9990.0</v>
       </c>
       <c r="C60" t="n">
-        <v>1270.0</v>
+        <v>1152.0</v>
       </c>
       <c r="D60" t="n">
-        <v>70.0</v>
+        <v>109.0</v>
       </c>
       <c r="E60" t="n">
-        <v>4819.0</v>
+        <v>6437.0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>16025.0</v>
+        <v>17637.0</v>
       </c>
       <c r="B61" t="n">
-        <v>10640.0</v>
+        <v>10572.0</v>
       </c>
       <c r="C61" t="n">
-        <v>1367.0</v>
+        <v>1101.0</v>
       </c>
       <c r="D61" t="n">
-        <v>78.0</v>
+        <v>120.0</v>
       </c>
       <c r="E61" t="n">
-        <v>5307.0</v>
+        <v>6945.0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>17483.0</v>
+        <v>18892.0</v>
       </c>
       <c r="B62" t="n">
-        <v>11528.0</v>
+        <v>11276.0</v>
       </c>
       <c r="C62" t="n">
-        <v>1458.0</v>
+        <v>1255.0</v>
       </c>
       <c r="D62" t="n">
-        <v>90.0</v>
+        <v>133.0</v>
       </c>
       <c r="E62" t="n">
-        <v>5865.0</v>
+        <v>7483.0</v>
       </c>
     </row>
   </sheetData>

--- a/src/output/results10.xlsx
+++ b/src/output/results10.xlsx
@@ -336,7 +336,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E62"/>
+  <dimension ref="A1:E139"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
       <selection activeCell="G60" sqref="G60"/>
@@ -346,13 +346,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>81.0</v>
+        <v>308.0</v>
       </c>
       <c r="B1" t="n">
-        <v>81.0</v>
+        <v>308.0</v>
       </c>
       <c r="C1" t="n">
-        <v>1.0</v>
+        <v>8.0</v>
       </c>
       <c r="D1" t="n">
         <v>0.0</v>
@@ -363,13 +363,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>85.0</v>
+        <v>317.0</v>
       </c>
       <c r="B2" t="n">
-        <v>85.0</v>
+        <v>317.0</v>
       </c>
       <c r="C2" t="n">
-        <v>4.0</v>
+        <v>9.0</v>
       </c>
       <c r="D2" t="n">
         <v>0.0</v>
@@ -380,13 +380,13 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>88.0</v>
+        <v>334.0</v>
       </c>
       <c r="B3" t="n">
-        <v>88.0</v>
+        <v>334.0</v>
       </c>
       <c r="C3" t="n">
-        <v>3.0</v>
+        <v>17.0</v>
       </c>
       <c r="D3" t="n">
         <v>0.0</v>
@@ -397,13 +397,13 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>94.0</v>
+        <v>362.0</v>
       </c>
       <c r="B4" t="n">
-        <v>94.0</v>
+        <v>362.0</v>
       </c>
       <c r="C4" t="n">
-        <v>6.0</v>
+        <v>28.0</v>
       </c>
       <c r="D4" t="n">
         <v>0.0</v>
@@ -414,13 +414,13 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>102.0</v>
+        <v>381.0</v>
       </c>
       <c r="B5" t="n">
-        <v>102.0</v>
+        <v>381.0</v>
       </c>
       <c r="C5" t="n">
-        <v>8.0</v>
+        <v>19.0</v>
       </c>
       <c r="D5" t="n">
         <v>0.0</v>
@@ -431,13 +431,13 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111.0</v>
+        <v>410.0</v>
       </c>
       <c r="B6" t="n">
-        <v>111.0</v>
+        <v>410.0</v>
       </c>
       <c r="C6" t="n">
-        <v>9.0</v>
+        <v>29.0</v>
       </c>
       <c r="D6" t="n">
         <v>0.0</v>
@@ -448,954 +448,2263 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>126.0</v>
+        <v>442.0</v>
       </c>
       <c r="B7" t="n">
-        <v>126.0</v>
+        <v>440.0</v>
       </c>
       <c r="C7" t="n">
-        <v>15.0</v>
+        <v>32.0</v>
       </c>
       <c r="D7" t="n">
         <v>0.0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>134.0</v>
+        <v>486.0</v>
       </c>
       <c r="B8" t="n">
-        <v>134.0</v>
+        <v>481.0</v>
       </c>
       <c r="C8" t="n">
-        <v>8.0</v>
+        <v>44.0</v>
       </c>
       <c r="D8" t="n">
         <v>0.0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>142.0</v>
+        <v>525.0</v>
       </c>
       <c r="B9" t="n">
-        <v>142.0</v>
+        <v>516.0</v>
       </c>
       <c r="C9" t="n">
-        <v>8.0</v>
+        <v>39.0</v>
       </c>
       <c r="D9" t="n">
         <v>0.0</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>156.0</v>
+        <v>569.0</v>
       </c>
       <c r="B10" t="n">
-        <v>156.0</v>
+        <v>558.0</v>
       </c>
       <c r="C10" t="n">
-        <v>14.0</v>
+        <v>44.0</v>
       </c>
       <c r="D10" t="n">
         <v>0.0</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>176.0</v>
+        <v>600.0</v>
       </c>
       <c r="B11" t="n">
-        <v>175.0</v>
+        <v>587.0</v>
       </c>
       <c r="C11" t="n">
-        <v>20.0</v>
+        <v>31.0</v>
       </c>
       <c r="D11" t="n">
         <v>0.0</v>
       </c>
       <c r="E11" t="n">
-        <v>1.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>197.0</v>
+        <v>634.0</v>
       </c>
       <c r="B12" t="n">
-        <v>195.0</v>
+        <v>608.0</v>
       </c>
       <c r="C12" t="n">
-        <v>21.0</v>
+        <v>34.0</v>
       </c>
       <c r="D12" t="n">
         <v>0.0</v>
       </c>
       <c r="E12" t="n">
-        <v>2.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>215.0</v>
+        <v>671.0</v>
       </c>
       <c r="B13" t="n">
-        <v>213.0</v>
+        <v>638.0</v>
       </c>
       <c r="C13" t="n">
-        <v>18.0</v>
+        <v>37.0</v>
       </c>
       <c r="D13" t="n">
         <v>0.0</v>
       </c>
       <c r="E13" t="n">
-        <v>2.0</v>
+        <v>33.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>237.0</v>
+        <v>712.0</v>
       </c>
       <c r="B14" t="n">
-        <v>234.0</v>
+        <v>668.0</v>
       </c>
       <c r="C14" t="n">
-        <v>22.0</v>
+        <v>41.0</v>
       </c>
       <c r="D14" t="n">
         <v>0.0</v>
       </c>
       <c r="E14" t="n">
-        <v>3.0</v>
+        <v>44.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>264.0</v>
+        <v>750.0</v>
       </c>
       <c r="B15" t="n">
-        <v>256.0</v>
+        <v>697.0</v>
       </c>
       <c r="C15" t="n">
-        <v>27.0</v>
+        <v>38.0</v>
       </c>
       <c r="D15" t="n">
         <v>0.0</v>
       </c>
       <c r="E15" t="n">
-        <v>8.0</v>
+        <v>53.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>294.0</v>
+        <v>793.0</v>
       </c>
       <c r="B16" t="n">
-        <v>283.0</v>
+        <v>726.0</v>
       </c>
       <c r="C16" t="n">
-        <v>30.0</v>
+        <v>43.0</v>
       </c>
       <c r="D16" t="n">
         <v>0.0</v>
       </c>
       <c r="E16" t="n">
-        <v>11.0</v>
+        <v>67.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>331.0</v>
+        <v>856.0</v>
       </c>
       <c r="B17" t="n">
-        <v>312.0</v>
+        <v>774.0</v>
       </c>
       <c r="C17" t="n">
-        <v>37.0</v>
+        <v>63.0</v>
       </c>
       <c r="D17" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="E17" t="n">
-        <v>18.0</v>
+        <v>82.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>371.0</v>
+        <v>905.0</v>
       </c>
       <c r="B18" t="n">
-        <v>347.0</v>
+        <v>805.0</v>
       </c>
       <c r="C18" t="n">
-        <v>40.0</v>
+        <v>49.0</v>
       </c>
       <c r="D18" t="n">
         <v>1.0</v>
       </c>
       <c r="E18" t="n">
-        <v>23.0</v>
+        <v>99.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>427.0</v>
+        <v>971.0</v>
       </c>
       <c r="B19" t="n">
-        <v>400.0</v>
+        <v>847.0</v>
       </c>
       <c r="C19" t="n">
-        <v>56.0</v>
+        <v>66.0</v>
       </c>
       <c r="D19" t="n">
         <v>1.0</v>
       </c>
       <c r="E19" t="n">
-        <v>26.0</v>
+        <v>123.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>471.0</v>
+        <v>1039.0</v>
       </c>
       <c r="B20" t="n">
-        <v>427.0</v>
+        <v>881.0</v>
       </c>
       <c r="C20" t="n">
-        <v>44.0</v>
+        <v>68.0</v>
       </c>
       <c r="D20" t="n">
         <v>1.0</v>
       </c>
       <c r="E20" t="n">
-        <v>43.0</v>
+        <v>157.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>532.0</v>
+        <v>1132.0</v>
       </c>
       <c r="B21" t="n">
-        <v>469.0</v>
+        <v>936.0</v>
       </c>
       <c r="C21" t="n">
-        <v>61.0</v>
+        <v>93.0</v>
       </c>
       <c r="D21" t="n">
         <v>1.0</v>
       </c>
       <c r="E21" t="n">
-        <v>62.0</v>
+        <v>195.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>605.0</v>
+        <v>1231.0</v>
       </c>
       <c r="B22" t="n">
-        <v>522.0</v>
+        <v>1002.0</v>
       </c>
       <c r="C22" t="n">
-        <v>73.0</v>
+        <v>99.0</v>
       </c>
       <c r="D22" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E22" t="n">
-        <v>82.0</v>
+        <v>227.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>672.0</v>
+        <v>1321.0</v>
       </c>
       <c r="B23" t="n">
-        <v>575.0</v>
+        <v>1061.0</v>
       </c>
       <c r="C23" t="n">
-        <v>67.0</v>
+        <v>90.0</v>
       </c>
       <c r="D23" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="E23" t="n">
-        <v>95.0</v>
+        <v>257.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>756.0</v>
+        <v>1403.0</v>
       </c>
       <c r="B24" t="n">
-        <v>632.0</v>
+        <v>1107.0</v>
       </c>
       <c r="C24" t="n">
-        <v>84.0</v>
+        <v>82.0</v>
       </c>
       <c r="D24" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="E24" t="n">
-        <v>122.0</v>
+        <v>293.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>847.0</v>
+        <v>1514.0</v>
       </c>
       <c r="B25" t="n">
-        <v>703.0</v>
+        <v>1173.0</v>
       </c>
       <c r="C25" t="n">
-        <v>91.0</v>
+        <v>111.0</v>
       </c>
       <c r="D25" t="n">
         <v>3.0</v>
       </c>
       <c r="E25" t="n">
-        <v>141.0</v>
+        <v>338.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>925.0</v>
+        <v>1596.0</v>
       </c>
       <c r="B26" t="n">
-        <v>755.0</v>
+        <v>1217.0</v>
       </c>
       <c r="C26" t="n">
-        <v>78.0</v>
+        <v>82.0</v>
       </c>
       <c r="D26" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="E26" t="n">
-        <v>166.0</v>
+        <v>376.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>1030.0</v>
+        <v>1705.0</v>
       </c>
       <c r="B27" t="n">
-        <v>822.0</v>
+        <v>1272.0</v>
       </c>
       <c r="C27" t="n">
-        <v>105.0</v>
+        <v>109.0</v>
       </c>
       <c r="D27" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="E27" t="n">
-        <v>203.0</v>
+        <v>429.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>1139.0</v>
+        <v>1803.0</v>
       </c>
       <c r="B28" t="n">
-        <v>899.0</v>
+        <v>1312.0</v>
       </c>
       <c r="C28" t="n">
-        <v>109.0</v>
+        <v>98.0</v>
       </c>
       <c r="D28" t="n">
-        <v>7.0</v>
+        <v>4.0</v>
       </c>
       <c r="E28" t="n">
-        <v>233.0</v>
+        <v>487.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>1250.0</v>
+        <v>1896.0</v>
       </c>
       <c r="B29" t="n">
-        <v>975.0</v>
+        <v>1362.0</v>
       </c>
       <c r="C29" t="n">
-        <v>111.0</v>
+        <v>93.0</v>
       </c>
       <c r="D29" t="n">
-        <v>7.0</v>
+        <v>4.0</v>
       </c>
       <c r="E29" t="n">
-        <v>268.0</v>
+        <v>530.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>1399.0</v>
+        <v>2003.0</v>
       </c>
       <c r="B30" t="n">
-        <v>1084.0</v>
+        <v>1413.0</v>
       </c>
       <c r="C30" t="n">
-        <v>149.0</v>
+        <v>107.0</v>
       </c>
       <c r="D30" t="n">
-        <v>7.0</v>
+        <v>4.0</v>
       </c>
       <c r="E30" t="n">
-        <v>308.0</v>
+        <v>586.0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>1533.0</v>
+        <v>2138.0</v>
       </c>
       <c r="B31" t="n">
-        <v>1175.0</v>
+        <v>1496.0</v>
       </c>
       <c r="C31" t="n">
-        <v>134.0</v>
+        <v>135.0</v>
       </c>
       <c r="D31" t="n">
         <v>7.0</v>
       </c>
       <c r="E31" t="n">
-        <v>351.0</v>
+        <v>635.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>1682.0</v>
+        <v>2271.0</v>
       </c>
       <c r="B32" t="n">
-        <v>1283.0</v>
+        <v>1575.0</v>
       </c>
       <c r="C32" t="n">
-        <v>149.0</v>
+        <v>133.0</v>
       </c>
       <c r="D32" t="n">
-        <v>7.0</v>
+        <v>9.0</v>
       </c>
       <c r="E32" t="n">
-        <v>392.0</v>
+        <v>687.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>1840.0</v>
+        <v>2391.0</v>
       </c>
       <c r="B33" t="n">
-        <v>1388.0</v>
+        <v>1610.0</v>
       </c>
       <c r="C33" t="n">
-        <v>158.0</v>
+        <v>120.0</v>
       </c>
       <c r="D33" t="n">
         <v>9.0</v>
       </c>
       <c r="E33" t="n">
-        <v>443.0</v>
+        <v>772.0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>2027.0</v>
+        <v>2523.0</v>
       </c>
       <c r="B34" t="n">
-        <v>1521.0</v>
+        <v>1673.0</v>
       </c>
       <c r="C34" t="n">
-        <v>187.0</v>
+        <v>132.0</v>
       </c>
       <c r="D34" t="n">
         <v>11.0</v>
       </c>
       <c r="E34" t="n">
-        <v>495.0</v>
+        <v>839.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>2222.0</v>
+        <v>2669.0</v>
       </c>
       <c r="B35" t="n">
-        <v>1654.0</v>
+        <v>1733.0</v>
       </c>
       <c r="C35" t="n">
-        <v>195.0</v>
+        <v>146.0</v>
       </c>
       <c r="D35" t="n">
-        <v>12.0</v>
+        <v>11.0</v>
       </c>
       <c r="E35" t="n">
-        <v>556.0</v>
+        <v>925.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>2448.0</v>
+        <v>2817.0</v>
       </c>
       <c r="B36" t="n">
-        <v>1827.0</v>
+        <v>1785.0</v>
       </c>
       <c r="C36" t="n">
-        <v>226.0</v>
+        <v>148.0</v>
       </c>
       <c r="D36" t="n">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c r="E36" t="n">
-        <v>609.0</v>
+        <v>1019.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>2703.0</v>
+        <v>2985.0</v>
       </c>
       <c r="B37" t="n">
-        <v>1995.0</v>
+        <v>1846.0</v>
       </c>
       <c r="C37" t="n">
-        <v>255.0</v>
+        <v>168.0</v>
       </c>
       <c r="D37" t="n">
         <v>14.0</v>
       </c>
       <c r="E37" t="n">
-        <v>694.0</v>
+        <v>1125.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>2960.0</v>
+        <v>3117.0</v>
       </c>
       <c r="B38" t="n">
-        <v>2166.0</v>
+        <v>1885.0</v>
       </c>
       <c r="C38" t="n">
-        <v>257.0</v>
+        <v>132.0</v>
       </c>
       <c r="D38" t="n">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="E38" t="n">
-        <v>778.0</v>
+        <v>1217.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>3252.0</v>
+        <v>3320.0</v>
       </c>
       <c r="B39" t="n">
-        <v>2347.0</v>
+        <v>2005.0</v>
       </c>
       <c r="C39" t="n">
-        <v>292.0</v>
+        <v>203.0</v>
       </c>
       <c r="D39" t="n">
-        <v>18.0</v>
+        <v>15.0</v>
       </c>
       <c r="E39" t="n">
-        <v>887.0</v>
+        <v>1300.0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>3532.0</v>
+        <v>3556.0</v>
       </c>
       <c r="B40" t="n">
-        <v>2527.0</v>
+        <v>2139.0</v>
       </c>
       <c r="C40" t="n">
-        <v>280.0</v>
+        <v>236.0</v>
       </c>
       <c r="D40" t="n">
-        <v>18.0</v>
+        <v>17.0</v>
       </c>
       <c r="E40" t="n">
-        <v>987.0</v>
+        <v>1400.0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>3859.0</v>
+        <v>3783.0</v>
       </c>
       <c r="B41" t="n">
-        <v>2755.0</v>
+        <v>2282.0</v>
       </c>
       <c r="C41" t="n">
-        <v>327.0</v>
+        <v>227.0</v>
       </c>
       <c r="D41" t="n">
-        <v>21.0</v>
+        <v>17.0</v>
       </c>
       <c r="E41" t="n">
-        <v>1083.0</v>
+        <v>1484.0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>4183.0</v>
+        <v>4006.0</v>
       </c>
       <c r="B42" t="n">
-        <v>2957.0</v>
+        <v>2403.0</v>
       </c>
       <c r="C42" t="n">
-        <v>324.0</v>
+        <v>223.0</v>
       </c>
       <c r="D42" t="n">
-        <v>21.0</v>
+        <v>18.0</v>
       </c>
       <c r="E42" t="n">
-        <v>1205.0</v>
+        <v>1585.0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>4558.0</v>
+        <v>4257.0</v>
       </c>
       <c r="B43" t="n">
-        <v>3193.0</v>
+        <v>2554.0</v>
       </c>
       <c r="C43" t="n">
-        <v>375.0</v>
+        <v>251.0</v>
       </c>
       <c r="D43" t="n">
-        <v>21.0</v>
+        <v>18.0</v>
       </c>
       <c r="E43" t="n">
-        <v>1344.0</v>
+        <v>1685.0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>4970.0</v>
+        <v>4548.0</v>
       </c>
       <c r="B44" t="n">
-        <v>3450.0</v>
+        <v>2718.0</v>
       </c>
       <c r="C44" t="n">
-        <v>412.0</v>
+        <v>291.0</v>
       </c>
       <c r="D44" t="n">
-        <v>25.0</v>
+        <v>18.0</v>
       </c>
       <c r="E44" t="n">
-        <v>1495.0</v>
+        <v>1812.0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>5431.0</v>
+        <v>4871.0</v>
       </c>
       <c r="B45" t="n">
-        <v>3754.0</v>
+        <v>2936.0</v>
       </c>
       <c r="C45" t="n">
-        <v>461.0</v>
+        <v>323.0</v>
       </c>
       <c r="D45" t="n">
-        <v>26.0</v>
+        <v>20.0</v>
       </c>
       <c r="E45" t="n">
-        <v>1651.0</v>
+        <v>1915.0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>5896.0</v>
+        <v>5169.0</v>
       </c>
       <c r="B46" t="n">
-        <v>4045.0</v>
+        <v>3094.0</v>
       </c>
       <c r="C46" t="n">
-        <v>465.0</v>
+        <v>298.0</v>
       </c>
       <c r="D46" t="n">
-        <v>27.0</v>
+        <v>20.0</v>
       </c>
       <c r="E46" t="n">
-        <v>1824.0</v>
+        <v>2055.0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>6379.0</v>
+        <v>5540.0</v>
       </c>
       <c r="B47" t="n">
-        <v>4349.0</v>
+        <v>3321.0</v>
       </c>
       <c r="C47" t="n">
-        <v>483.0</v>
+        <v>371.0</v>
       </c>
       <c r="D47" t="n">
-        <v>29.0</v>
+        <v>20.0</v>
       </c>
       <c r="E47" t="n">
-        <v>2001.0</v>
+        <v>2199.0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>6917.0</v>
+        <v>5922.0</v>
       </c>
       <c r="B48" t="n">
-        <v>4685.0</v>
+        <v>3558.0</v>
       </c>
       <c r="C48" t="n">
-        <v>538.0</v>
+        <v>382.0</v>
       </c>
       <c r="D48" t="n">
-        <v>31.0</v>
+        <v>21.0</v>
       </c>
       <c r="E48" t="n">
-        <v>2201.0</v>
+        <v>2343.0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>7466.0</v>
+        <v>6341.0</v>
       </c>
       <c r="B49" t="n">
-        <v>5016.0</v>
+        <v>3800.0</v>
       </c>
       <c r="C49" t="n">
-        <v>549.0</v>
+        <v>419.0</v>
       </c>
       <c r="D49" t="n">
-        <v>35.0</v>
+        <v>22.0</v>
       </c>
       <c r="E49" t="n">
-        <v>2415.0</v>
+        <v>2519.0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>8070.0</v>
+        <v>6781.0</v>
       </c>
       <c r="B50" t="n">
-        <v>5363.0</v>
+        <v>4058.0</v>
       </c>
       <c r="C50" t="n">
-        <v>604.0</v>
+        <v>440.0</v>
       </c>
       <c r="D50" t="n">
-        <v>37.0</v>
+        <v>23.0</v>
       </c>
       <c r="E50" t="n">
-        <v>2670.0</v>
+        <v>2700.0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>8704.0</v>
+        <v>7247.0</v>
       </c>
       <c r="B51" t="n">
-        <v>5747.0</v>
+        <v>4325.0</v>
       </c>
       <c r="C51" t="n">
-        <v>634.0</v>
+        <v>466.0</v>
       </c>
       <c r="D51" t="n">
-        <v>40.0</v>
+        <v>24.0</v>
       </c>
       <c r="E51" t="n">
-        <v>2917.0</v>
+        <v>2898.0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>9425.0</v>
+        <v>7781.0</v>
       </c>
       <c r="B52" t="n">
-        <v>6171.0</v>
+        <v>4650.0</v>
       </c>
       <c r="C52" t="n">
-        <v>721.0</v>
+        <v>534.0</v>
       </c>
       <c r="D52" t="n">
-        <v>45.0</v>
+        <v>29.0</v>
       </c>
       <c r="E52" t="n">
-        <v>3209.0</v>
+        <v>3102.0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>10183.0</v>
+        <v>8329.0</v>
       </c>
       <c r="B53" t="n">
-        <v>6613.0</v>
+        <v>4993.0</v>
       </c>
       <c r="C53" t="n">
-        <v>758.0</v>
+        <v>548.0</v>
       </c>
       <c r="D53" t="n">
-        <v>50.0</v>
+        <v>32.0</v>
       </c>
       <c r="E53" t="n">
-        <v>3520.0</v>
+        <v>3304.0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>10957.0</v>
+        <v>8844.0</v>
       </c>
       <c r="B54" t="n">
-        <v>7056.0</v>
+        <v>5295.0</v>
       </c>
       <c r="C54" t="n">
-        <v>774.0</v>
+        <v>515.0</v>
       </c>
       <c r="D54" t="n">
-        <v>55.0</v>
+        <v>34.0</v>
       </c>
       <c r="E54" t="n">
-        <v>3846.0</v>
+        <v>3515.0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>11756.0</v>
+        <v>9440.0</v>
       </c>
       <c r="B55" t="n">
-        <v>7496.0</v>
+        <v>5636.0</v>
       </c>
       <c r="C55" t="n">
-        <v>799.0</v>
+        <v>596.0</v>
       </c>
       <c r="D55" t="n">
-        <v>64.0</v>
+        <v>38.0</v>
       </c>
       <c r="E55" t="n">
-        <v>4196.0</v>
+        <v>3766.0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>12619.0</v>
+        <v>10023.0</v>
       </c>
       <c r="B56" t="n">
-        <v>7963.0</v>
+        <v>5945.0</v>
       </c>
       <c r="C56" t="n">
-        <v>863.0</v>
+        <v>583.0</v>
       </c>
       <c r="D56" t="n">
-        <v>68.0</v>
+        <v>39.0</v>
       </c>
       <c r="E56" t="n">
-        <v>4588.0</v>
+        <v>4039.0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>13509.0</v>
+        <v>10633.0</v>
       </c>
       <c r="B57" t="n">
-        <v>8437.0</v>
+        <v>6265.0</v>
       </c>
       <c r="C57" t="n">
-        <v>890.0</v>
+        <v>610.0</v>
       </c>
       <c r="D57" t="n">
-        <v>73.0</v>
+        <v>42.0</v>
       </c>
       <c r="E57" t="n">
-        <v>4999.0</v>
+        <v>4326.0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>14405.0</v>
+        <v>11277.0</v>
       </c>
       <c r="B58" t="n">
-        <v>8900.0</v>
+        <v>6598.0</v>
       </c>
       <c r="C58" t="n">
-        <v>896.0</v>
+        <v>644.0</v>
       </c>
       <c r="D58" t="n">
-        <v>83.0</v>
+        <v>45.0</v>
       </c>
       <c r="E58" t="n">
-        <v>5422.0</v>
+        <v>4634.0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>15384.0</v>
+        <v>11976.0</v>
       </c>
       <c r="B59" t="n">
-        <v>9340.0</v>
+        <v>6958.0</v>
       </c>
       <c r="C59" t="n">
-        <v>979.0</v>
+        <v>699.0</v>
       </c>
       <c r="D59" t="n">
-        <v>97.0</v>
+        <v>50.0</v>
       </c>
       <c r="E59" t="n">
-        <v>5947.0</v>
+        <v>4968.0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>16536.0</v>
+        <v>12667.0</v>
       </c>
       <c r="B60" t="n">
-        <v>9990.0</v>
+        <v>7259.0</v>
       </c>
       <c r="C60" t="n">
-        <v>1152.0</v>
+        <v>691.0</v>
       </c>
       <c r="D60" t="n">
-        <v>109.0</v>
+        <v>55.0</v>
       </c>
       <c r="E60" t="n">
-        <v>6437.0</v>
+        <v>5353.0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>17637.0</v>
+        <v>13423.0</v>
       </c>
       <c r="B61" t="n">
-        <v>10572.0</v>
+        <v>7647.0</v>
       </c>
       <c r="C61" t="n">
-        <v>1101.0</v>
+        <v>756.0</v>
       </c>
       <c r="D61" t="n">
-        <v>120.0</v>
+        <v>57.0</v>
       </c>
       <c r="E61" t="n">
-        <v>6945.0</v>
+        <v>5719.0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>18892.0</v>
+        <v>14294.0</v>
       </c>
       <c r="B62" t="n">
-        <v>11276.0</v>
+        <v>8123.0</v>
       </c>
       <c r="C62" t="n">
-        <v>1255.0</v>
+        <v>871.0</v>
       </c>
       <c r="D62" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="E62" t="n">
+        <v>6111.0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>15182.0</v>
+      </c>
+      <c r="B63" t="n">
+        <v>8585.0</v>
+      </c>
+      <c r="C63" t="n">
+        <v>888.0</v>
+      </c>
+      <c r="D63" t="n">
+        <v>66.0</v>
+      </c>
+      <c r="E63" t="n">
+        <v>6531.0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>16061.0</v>
+      </c>
+      <c r="B64" t="n">
+        <v>8999.0</v>
+      </c>
+      <c r="C64" t="n">
+        <v>879.0</v>
+      </c>
+      <c r="D64" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="E64" t="n">
+        <v>6992.0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>17009.0</v>
+      </c>
+      <c r="B65" t="n">
+        <v>9461.0</v>
+      </c>
+      <c r="C65" t="n">
+        <v>948.0</v>
+      </c>
+      <c r="D65" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="E65" t="n">
+        <v>7471.0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>17997.0</v>
+      </c>
+      <c r="B66" t="n">
+        <v>9924.0</v>
+      </c>
+      <c r="C66" t="n">
+        <v>988.0</v>
+      </c>
+      <c r="D66" t="n">
+        <v>85.0</v>
+      </c>
+      <c r="E66" t="n">
+        <v>7988.0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>4803.0</v>
+      </c>
+      <c r="B67" t="n">
+        <v>1858.0</v>
+      </c>
+      <c r="C67" t="n">
+        <v>156.0</v>
+      </c>
+      <c r="D67" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="E67" t="n">
+        <v>2899.0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>4971.0</v>
+      </c>
+      <c r="B68" t="n">
+        <v>1905.0</v>
+      </c>
+      <c r="C68" t="n">
+        <v>168.0</v>
+      </c>
+      <c r="D68" t="n">
+        <v>49.0</v>
+      </c>
+      <c r="E68" t="n">
+        <v>3017.0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>5152.0</v>
+      </c>
+      <c r="B69" t="n">
+        <v>1978.0</v>
+      </c>
+      <c r="C69" t="n">
+        <v>181.0</v>
+      </c>
+      <c r="D69" t="n">
+        <v>49.0</v>
+      </c>
+      <c r="E69" t="n">
+        <v>3125.0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>5321.0</v>
+      </c>
+      <c r="B70" t="n">
+        <v>2031.0</v>
+      </c>
+      <c r="C70" t="n">
+        <v>169.0</v>
+      </c>
+      <c r="D70" t="n">
+        <v>51.0</v>
+      </c>
+      <c r="E70" t="n">
+        <v>3239.0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>5516.0</v>
+      </c>
+      <c r="B71" t="n">
+        <v>2107.0</v>
+      </c>
+      <c r="C71" t="n">
+        <v>195.0</v>
+      </c>
+      <c r="D71" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="E71" t="n">
+        <v>3354.0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>5715.0</v>
+      </c>
+      <c r="B72" t="n">
+        <v>2175.0</v>
+      </c>
+      <c r="C72" t="n">
+        <v>199.0</v>
+      </c>
+      <c r="D72" t="n">
+        <v>57.0</v>
+      </c>
+      <c r="E72" t="n">
+        <v>3483.0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>5922.0</v>
+      </c>
+      <c r="B73" t="n">
+        <v>2249.0</v>
+      </c>
+      <c r="C73" t="n">
+        <v>207.0</v>
+      </c>
+      <c r="D73" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="E73" t="n">
+        <v>3613.0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>6106.0</v>
+      </c>
+      <c r="B74" t="n">
+        <v>2290.0</v>
+      </c>
+      <c r="C74" t="n">
+        <v>184.0</v>
+      </c>
+      <c r="D74" t="n">
+        <v>65.0</v>
+      </c>
+      <c r="E74" t="n">
+        <v>3751.0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>6356.0</v>
+      </c>
+      <c r="B75" t="n">
+        <v>2399.0</v>
+      </c>
+      <c r="C75" t="n">
+        <v>250.0</v>
+      </c>
+      <c r="D75" t="n">
+        <v>66.0</v>
+      </c>
+      <c r="E75" t="n">
+        <v>3891.0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>6576.0</v>
+      </c>
+      <c r="B76" t="n">
+        <v>2497.0</v>
+      </c>
+      <c r="C76" t="n">
+        <v>220.0</v>
+      </c>
+      <c r="D76" t="n">
+        <v>66.0</v>
+      </c>
+      <c r="E76" t="n">
+        <v>4013.0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>6805.0</v>
+      </c>
+      <c r="B77" t="n">
+        <v>2572.0</v>
+      </c>
+      <c r="C77" t="n">
+        <v>229.0</v>
+      </c>
+      <c r="D77" t="n">
+        <v>66.0</v>
+      </c>
+      <c r="E77" t="n">
+        <v>4167.0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>7021.0</v>
+      </c>
+      <c r="B78" t="n">
+        <v>2652.0</v>
+      </c>
+      <c r="C78" t="n">
+        <v>216.0</v>
+      </c>
+      <c r="D78" t="n">
+        <v>68.0</v>
+      </c>
+      <c r="E78" t="n">
+        <v>4301.0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>7255.0</v>
+      </c>
+      <c r="B79" t="n">
+        <v>2723.0</v>
+      </c>
+      <c r="C79" t="n">
+        <v>234.0</v>
+      </c>
+      <c r="D79" t="n">
+        <v>69.0</v>
+      </c>
+      <c r="E79" t="n">
+        <v>4463.0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>7488.0</v>
+      </c>
+      <c r="B80" t="n">
+        <v>2798.0</v>
+      </c>
+      <c r="C80" t="n">
+        <v>233.0</v>
+      </c>
+      <c r="D80" t="n">
+        <v>72.0</v>
+      </c>
+      <c r="E80" t="n">
+        <v>4618.0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>7715.0</v>
+      </c>
+      <c r="B81" t="n">
+        <v>2848.0</v>
+      </c>
+      <c r="C81" t="n">
+        <v>227.0</v>
+      </c>
+      <c r="D81" t="n">
+        <v>72.0</v>
+      </c>
+      <c r="E81" t="n">
+        <v>4795.0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>7933.0</v>
+      </c>
+      <c r="B82" t="n">
+        <v>2869.0</v>
+      </c>
+      <c r="C82" t="n">
+        <v>218.0</v>
+      </c>
+      <c r="D82" t="n">
+        <v>74.0</v>
+      </c>
+      <c r="E82" t="n">
+        <v>4990.0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>8180.0</v>
+      </c>
+      <c r="B83" t="n">
+        <v>2940.0</v>
+      </c>
+      <c r="C83" t="n">
+        <v>247.0</v>
+      </c>
+      <c r="D83" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="E83" t="n">
+        <v>5163.0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>8433.0</v>
+      </c>
+      <c r="B84" t="n">
+        <v>2987.0</v>
+      </c>
+      <c r="C84" t="n">
+        <v>253.0</v>
+      </c>
+      <c r="D84" t="n">
+        <v>85.0</v>
+      </c>
+      <c r="E84" t="n">
+        <v>5361.0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>8668.0</v>
+      </c>
+      <c r="B85" t="n">
+        <v>3052.0</v>
+      </c>
+      <c r="C85" t="n">
+        <v>235.0</v>
+      </c>
+      <c r="D85" t="n">
+        <v>86.0</v>
+      </c>
+      <c r="E85" t="n">
+        <v>5530.0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>8947.0</v>
+      </c>
+      <c r="B86" t="n">
+        <v>3160.0</v>
+      </c>
+      <c r="C86" t="n">
+        <v>279.0</v>
+      </c>
+      <c r="D86" t="n">
+        <v>89.0</v>
+      </c>
+      <c r="E86" t="n">
+        <v>5698.0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>9221.0</v>
+      </c>
+      <c r="B87" t="n">
+        <v>3231.0</v>
+      </c>
+      <c r="C87" t="n">
+        <v>274.0</v>
+      </c>
+      <c r="D87" t="n">
+        <v>91.0</v>
+      </c>
+      <c r="E87" t="n">
+        <v>5899.0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>9504.0</v>
+      </c>
+      <c r="B88" t="n">
+        <v>3309.0</v>
+      </c>
+      <c r="C88" t="n">
+        <v>283.0</v>
+      </c>
+      <c r="D88" t="n">
+        <v>97.0</v>
+      </c>
+      <c r="E88" t="n">
+        <v>6098.0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>9778.0</v>
+      </c>
+      <c r="B89" t="n">
+        <v>3392.0</v>
+      </c>
+      <c r="C89" t="n">
+        <v>274.0</v>
+      </c>
+      <c r="D89" t="n">
+        <v>99.0</v>
+      </c>
+      <c r="E89" t="n">
+        <v>6287.0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>10053.0</v>
+      </c>
+      <c r="B90" t="n">
+        <v>3450.0</v>
+      </c>
+      <c r="C90" t="n">
+        <v>275.0</v>
+      </c>
+      <c r="D90" t="n">
+        <v>102.0</v>
+      </c>
+      <c r="E90" t="n">
+        <v>6501.0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>10336.0</v>
+      </c>
+      <c r="B91" t="n">
+        <v>3521.0</v>
+      </c>
+      <c r="C91" t="n">
+        <v>283.0</v>
+      </c>
+      <c r="D91" t="n">
+        <v>106.0</v>
+      </c>
+      <c r="E91" t="n">
+        <v>6709.0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>10622.0</v>
+      </c>
+      <c r="B92" t="n">
+        <v>3573.0</v>
+      </c>
+      <c r="C92" t="n">
+        <v>286.0</v>
+      </c>
+      <c r="D92" t="n">
+        <v>108.0</v>
+      </c>
+      <c r="E92" t="n">
+        <v>6941.0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>10916.0</v>
+      </c>
+      <c r="B93" t="n">
+        <v>3654.0</v>
+      </c>
+      <c r="C93" t="n">
+        <v>294.0</v>
+      </c>
+      <c r="D93" t="n">
+        <v>111.0</v>
+      </c>
+      <c r="E93" t="n">
+        <v>7151.0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>11226.0</v>
+      </c>
+      <c r="B94" t="n">
+        <v>3742.0</v>
+      </c>
+      <c r="C94" t="n">
+        <v>310.0</v>
+      </c>
+      <c r="D94" t="n">
+        <v>113.0</v>
+      </c>
+      <c r="E94" t="n">
+        <v>7371.0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>11519.0</v>
+      </c>
+      <c r="B95" t="n">
+        <v>3801.0</v>
+      </c>
+      <c r="C95" t="n">
+        <v>293.0</v>
+      </c>
+      <c r="D95" t="n">
+        <v>115.0</v>
+      </c>
+      <c r="E95" t="n">
+        <v>7603.0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>11822.0</v>
+      </c>
+      <c r="B96" t="n">
+        <v>3851.0</v>
+      </c>
+      <c r="C96" t="n">
+        <v>303.0</v>
+      </c>
+      <c r="D96" t="n">
+        <v>118.0</v>
+      </c>
+      <c r="E96" t="n">
+        <v>7853.0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>12106.0</v>
+      </c>
+      <c r="B97" t="n">
+        <v>3879.0</v>
+      </c>
+      <c r="C97" t="n">
+        <v>284.0</v>
+      </c>
+      <c r="D97" t="n">
+        <v>122.0</v>
+      </c>
+      <c r="E97" t="n">
+        <v>8105.0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>12419.0</v>
+      </c>
+      <c r="B98" t="n">
+        <v>3956.0</v>
+      </c>
+      <c r="C98" t="n">
+        <v>313.0</v>
+      </c>
+      <c r="D98" t="n">
+        <v>124.0</v>
+      </c>
+      <c r="E98" t="n">
+        <v>8339.0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>12758.0</v>
+      </c>
+      <c r="B99" t="n">
+        <v>4033.0</v>
+      </c>
+      <c r="C99" t="n">
+        <v>339.0</v>
+      </c>
+      <c r="D99" t="n">
+        <v>129.0</v>
+      </c>
+      <c r="E99" t="n">
+        <v>8596.0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>13066.0</v>
+      </c>
+      <c r="B100" t="n">
+        <v>4072.0</v>
+      </c>
+      <c r="C100" t="n">
+        <v>308.0</v>
+      </c>
+      <c r="D100" t="n">
         <v>133.0</v>
       </c>
-      <c r="E62" t="n">
-        <v>7483.0</v>
+      <c r="E100" t="n">
+        <v>8861.0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>13426.0</v>
+      </c>
+      <c r="B101" t="n">
+        <v>4177.0</v>
+      </c>
+      <c r="C101" t="n">
+        <v>360.0</v>
+      </c>
+      <c r="D101" t="n">
+        <v>139.0</v>
+      </c>
+      <c r="E101" t="n">
+        <v>9110.0</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>13752.0</v>
+      </c>
+      <c r="B102" t="n">
+        <v>4236.0</v>
+      </c>
+      <c r="C102" t="n">
+        <v>326.0</v>
+      </c>
+      <c r="D102" t="n">
+        <v>142.0</v>
+      </c>
+      <c r="E102" t="n">
+        <v>9374.0</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>14117.0</v>
+      </c>
+      <c r="B103" t="n">
+        <v>4289.0</v>
+      </c>
+      <c r="C103" t="n">
+        <v>365.0</v>
+      </c>
+      <c r="D103" t="n">
+        <v>144.0</v>
+      </c>
+      <c r="E103" t="n">
+        <v>9684.0</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>14454.0</v>
+      </c>
+      <c r="B104" t="n">
+        <v>4360.0</v>
+      </c>
+      <c r="C104" t="n">
+        <v>337.0</v>
+      </c>
+      <c r="D104" t="n">
+        <v>147.0</v>
+      </c>
+      <c r="E104" t="n">
+        <v>9947.0</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>14844.0</v>
+      </c>
+      <c r="B105" t="n">
+        <v>4473.0</v>
+      </c>
+      <c r="C105" t="n">
+        <v>390.0</v>
+      </c>
+      <c r="D105" t="n">
+        <v>149.0</v>
+      </c>
+      <c r="E105" t="n">
+        <v>10222.0</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>15217.0</v>
+      </c>
+      <c r="B106" t="n">
+        <v>4574.0</v>
+      </c>
+      <c r="C106" t="n">
+        <v>373.0</v>
+      </c>
+      <c r="D106" t="n">
+        <v>151.0</v>
+      </c>
+      <c r="E106" t="n">
+        <v>10492.0</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>15584.0</v>
+      </c>
+      <c r="B107" t="n">
+        <v>4663.0</v>
+      </c>
+      <c r="C107" t="n">
+        <v>367.0</v>
+      </c>
+      <c r="D107" t="n">
+        <v>152.0</v>
+      </c>
+      <c r="E107" t="n">
+        <v>10769.0</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>15970.0</v>
+      </c>
+      <c r="B108" t="n">
+        <v>4755.0</v>
+      </c>
+      <c r="C108" t="n">
+        <v>386.0</v>
+      </c>
+      <c r="D108" t="n">
+        <v>154.0</v>
+      </c>
+      <c r="E108" t="n">
+        <v>11061.0</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>16409.0</v>
+      </c>
+      <c r="B109" t="n">
+        <v>4873.0</v>
+      </c>
+      <c r="C109" t="n">
+        <v>439.0</v>
+      </c>
+      <c r="D109" t="n">
+        <v>159.0</v>
+      </c>
+      <c r="E109" t="n">
+        <v>11377.0</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>16861.0</v>
+      </c>
+      <c r="B110" t="n">
+        <v>4992.0</v>
+      </c>
+      <c r="C110" t="n">
+        <v>452.0</v>
+      </c>
+      <c r="D110" t="n">
+        <v>165.0</v>
+      </c>
+      <c r="E110" t="n">
+        <v>11704.0</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>17322.0</v>
+      </c>
+      <c r="B111" t="n">
+        <v>5131.0</v>
+      </c>
+      <c r="C111" t="n">
+        <v>461.0</v>
+      </c>
+      <c r="D111" t="n">
+        <v>172.0</v>
+      </c>
+      <c r="E111" t="n">
+        <v>12019.0</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>17785.0</v>
+      </c>
+      <c r="B112" t="n">
+        <v>5277.0</v>
+      </c>
+      <c r="C112" t="n">
+        <v>463.0</v>
+      </c>
+      <c r="D112" t="n">
+        <v>175.0</v>
+      </c>
+      <c r="E112" t="n">
+        <v>12333.0</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>18219.0</v>
+      </c>
+      <c r="B113" t="n">
+        <v>5393.0</v>
+      </c>
+      <c r="C113" t="n">
+        <v>434.0</v>
+      </c>
+      <c r="D113" t="n">
+        <v>180.0</v>
+      </c>
+      <c r="E113" t="n">
+        <v>12646.0</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>18725.0</v>
+      </c>
+      <c r="B114" t="n">
+        <v>5574.0</v>
+      </c>
+      <c r="C114" t="n">
+        <v>506.0</v>
+      </c>
+      <c r="D114" t="n">
+        <v>187.0</v>
+      </c>
+      <c r="E114" t="n">
+        <v>12964.0</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>19241.0</v>
+      </c>
+      <c r="B115" t="n">
+        <v>5712.0</v>
+      </c>
+      <c r="C115" t="n">
+        <v>516.0</v>
+      </c>
+      <c r="D115" t="n">
+        <v>192.0</v>
+      </c>
+      <c r="E115" t="n">
+        <v>13337.0</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>19785.0</v>
+      </c>
+      <c r="B116" t="n">
+        <v>5912.0</v>
+      </c>
+      <c r="C116" t="n">
+        <v>544.0</v>
+      </c>
+      <c r="D116" t="n">
+        <v>198.0</v>
+      </c>
+      <c r="E116" t="n">
+        <v>13675.0</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>20285.0</v>
+      </c>
+      <c r="B117" t="n">
+        <v>6070.0</v>
+      </c>
+      <c r="C117" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="D117" t="n">
+        <v>204.0</v>
+      </c>
+      <c r="E117" t="n">
+        <v>14011.0</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>20859.0</v>
+      </c>
+      <c r="B118" t="n">
+        <v>6287.0</v>
+      </c>
+      <c r="C118" t="n">
+        <v>574.0</v>
+      </c>
+      <c r="D118" t="n">
+        <v>208.0</v>
+      </c>
+      <c r="E118" t="n">
+        <v>14364.0</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>21451.0</v>
+      </c>
+      <c r="B119" t="n">
+        <v>6481.0</v>
+      </c>
+      <c r="C119" t="n">
+        <v>592.0</v>
+      </c>
+      <c r="D119" t="n">
+        <v>212.0</v>
+      </c>
+      <c r="E119" t="n">
+        <v>14758.0</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>21975.0</v>
+      </c>
+      <c r="B120" t="n">
+        <v>6615.0</v>
+      </c>
+      <c r="C120" t="n">
+        <v>524.0</v>
+      </c>
+      <c r="D120" t="n">
+        <v>217.0</v>
+      </c>
+      <c r="E120" t="n">
+        <v>15143.0</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>22550.0</v>
+      </c>
+      <c r="B121" t="n">
+        <v>6755.0</v>
+      </c>
+      <c r="C121" t="n">
+        <v>575.0</v>
+      </c>
+      <c r="D121" t="n">
+        <v>219.0</v>
+      </c>
+      <c r="E121" t="n">
+        <v>15576.0</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>23143.0</v>
+      </c>
+      <c r="B122" t="n">
+        <v>6955.0</v>
+      </c>
+      <c r="C122" t="n">
+        <v>593.0</v>
+      </c>
+      <c r="D122" t="n">
+        <v>223.0</v>
+      </c>
+      <c r="E122" t="n">
+        <v>15965.0</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>23792.0</v>
+      </c>
+      <c r="B123" t="n">
+        <v>7150.0</v>
+      </c>
+      <c r="C123" t="n">
+        <v>649.0</v>
+      </c>
+      <c r="D123" t="n">
+        <v>229.0</v>
+      </c>
+      <c r="E123" t="n">
+        <v>16413.0</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>24458.0</v>
+      </c>
+      <c r="B124" t="n">
+        <v>7381.0</v>
+      </c>
+      <c r="C124" t="n">
+        <v>666.0</v>
+      </c>
+      <c r="D124" t="n">
+        <v>236.0</v>
+      </c>
+      <c r="E124" t="n">
+        <v>16841.0</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>25174.0</v>
+      </c>
+      <c r="B125" t="n">
+        <v>7611.0</v>
+      </c>
+      <c r="C125" t="n">
+        <v>716.0</v>
+      </c>
+      <c r="D125" t="n">
+        <v>244.0</v>
+      </c>
+      <c r="E125" t="n">
+        <v>17319.0</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>25872.0</v>
+      </c>
+      <c r="B126" t="n">
+        <v>7829.0</v>
+      </c>
+      <c r="C126" t="n">
+        <v>698.0</v>
+      </c>
+      <c r="D126" t="n">
+        <v>251.0</v>
+      </c>
+      <c r="E126" t="n">
+        <v>17792.0</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>26624.0</v>
+      </c>
+      <c r="B127" t="n">
+        <v>8128.0</v>
+      </c>
+      <c r="C127" t="n">
+        <v>752.0</v>
+      </c>
+      <c r="D127" t="n">
+        <v>259.0</v>
+      </c>
+      <c r="E127" t="n">
+        <v>18237.0</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>27350.0</v>
+      </c>
+      <c r="B128" t="n">
+        <v>8336.0</v>
+      </c>
+      <c r="C128" t="n">
+        <v>726.0</v>
+      </c>
+      <c r="D128" t="n">
+        <v>266.0</v>
+      </c>
+      <c r="E128" t="n">
+        <v>18748.0</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>28119.0</v>
+      </c>
+      <c r="B129" t="n">
+        <v>8564.0</v>
+      </c>
+      <c r="C129" t="n">
+        <v>769.0</v>
+      </c>
+      <c r="D129" t="n">
+        <v>276.0</v>
+      </c>
+      <c r="E129" t="n">
+        <v>19279.0</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>28915.0</v>
+      </c>
+      <c r="B130" t="n">
+        <v>8820.0</v>
+      </c>
+      <c r="C130" t="n">
+        <v>796.0</v>
+      </c>
+      <c r="D130" t="n">
+        <v>287.0</v>
+      </c>
+      <c r="E130" t="n">
+        <v>19808.0</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>29670.0</v>
+      </c>
+      <c r="B131" t="n">
+        <v>9062.0</v>
+      </c>
+      <c r="C131" t="n">
+        <v>755.0</v>
+      </c>
+      <c r="D131" t="n">
+        <v>297.0</v>
+      </c>
+      <c r="E131" t="n">
+        <v>20311.0</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>30435.0</v>
+      </c>
+      <c r="B132" t="n">
+        <v>9284.0</v>
+      </c>
+      <c r="C132" t="n">
+        <v>765.0</v>
+      </c>
+      <c r="D132" t="n">
+        <v>303.0</v>
+      </c>
+      <c r="E132" t="n">
+        <v>20848.0</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>31292.0</v>
+      </c>
+      <c r="B133" t="n">
+        <v>9539.0</v>
+      </c>
+      <c r="C133" t="n">
+        <v>857.0</v>
+      </c>
+      <c r="D133" t="n">
+        <v>316.0</v>
+      </c>
+      <c r="E133" t="n">
+        <v>21437.0</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>32141.0</v>
+      </c>
+      <c r="B134" t="n">
+        <v>9812.0</v>
+      </c>
+      <c r="C134" t="n">
+        <v>849.0</v>
+      </c>
+      <c r="D134" t="n">
+        <v>325.0</v>
+      </c>
+      <c r="E134" t="n">
+        <v>22004.0</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>33016.0</v>
+      </c>
+      <c r="B135" t="n">
+        <v>10063.0</v>
+      </c>
+      <c r="C135" t="n">
+        <v>875.0</v>
+      </c>
+      <c r="D135" t="n">
+        <v>338.0</v>
+      </c>
+      <c r="E135" t="n">
+        <v>22615.0</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>33854.0</v>
+      </c>
+      <c r="B136" t="n">
+        <v>10222.0</v>
+      </c>
+      <c r="C136" t="n">
+        <v>838.0</v>
+      </c>
+      <c r="D136" t="n">
+        <v>349.0</v>
+      </c>
+      <c r="E136" t="n">
+        <v>23283.0</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>34751.0</v>
+      </c>
+      <c r="B137" t="n">
+        <v>10434.0</v>
+      </c>
+      <c r="C137" t="n">
+        <v>897.0</v>
+      </c>
+      <c r="D137" t="n">
+        <v>360.0</v>
+      </c>
+      <c r="E137" t="n">
+        <v>23957.0</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>35634.0</v>
+      </c>
+      <c r="B138" t="n">
+        <v>10638.0</v>
+      </c>
+      <c r="C138" t="n">
+        <v>883.0</v>
+      </c>
+      <c r="D138" t="n">
+        <v>370.0</v>
+      </c>
+      <c r="E138" t="n">
+        <v>24626.0</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>36502.0</v>
+      </c>
+      <c r="B139" t="n">
+        <v>10795.0</v>
+      </c>
+      <c r="C139" t="n">
+        <v>868.0</v>
+      </c>
+      <c r="D139" t="n">
+        <v>381.0</v>
+      </c>
+      <c r="E139" t="n">
+        <v>25326.0</v>
       </c>
     </row>
   </sheetData>
